--- a/Log2.xlsx
+++ b/Log2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4621A5D0-8076-4BA9-9E6B-C6DB7E0F3E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6251D434-4782-45B3-B228-E41299E4323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="4440" yWindow="3660" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
         <v>1.45</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E4">
         <v>1.67</v>
@@ -584,7 +584,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="D5">
-        <v>4.0199999999999996</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1.83</v>
@@ -610,7 +610,7 @@
         <v>3.45</v>
       </c>
       <c r="D6">
-        <v>3.73</v>
+        <v>6.5</v>
       </c>
       <c r="E6">
         <v>1.9</v>
@@ -636,7 +636,7 @@
         <v>4.95</v>
       </c>
       <c r="D7">
-        <v>3.84</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>1.9</v>
@@ -662,7 +662,7 @@
         <v>6.45</v>
       </c>
       <c r="D8">
-        <v>3.34</v>
+        <v>12.3</v>
       </c>
       <c r="E8">
         <v>2</v>

--- a/Log2.xlsx
+++ b/Log2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6251D434-4782-45B3-B228-E41299E4323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696A7DA1-3DDE-40F8-BB03-1DAEED78E575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3660" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="9210" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>1.67</v>
       </c>
       <c r="F4">
-        <v>59.1</v>
+        <v>99</v>
       </c>
       <c r="G4">
         <v>27.05</v>
@@ -590,7 +590,7 @@
         <v>1.83</v>
       </c>
       <c r="F5">
-        <v>77.010000000000005</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>27.55</v>
@@ -616,7 +616,7 @@
         <v>1.9</v>
       </c>
       <c r="F6">
-        <v>93.99</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <v>33.869999999999997</v>
@@ -642,7 +642,7 @@
         <v>1.9</v>
       </c>
       <c r="F7">
-        <v>48.09</v>
+        <v>99</v>
       </c>
       <c r="G7">
         <v>15.35</v>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>63.22</v>
+        <v>98</v>
       </c>
       <c r="G8">
         <v>17.3</v>

--- a/Log2.xlsx
+++ b/Log2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696A7DA1-3DDE-40F8-BB03-1DAEED78E575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8928994-D598-4115-904D-98C73677BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9210" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
         <v>3.8</v>
       </c>
       <c r="E4">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="F4">
         <v>99</v>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="F5">
         <v>98</v>
@@ -613,7 +613,7 @@
         <v>6.5</v>
       </c>
       <c r="E6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F6">
         <v>99</v>
@@ -639,7 +639,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F7">
         <v>99</v>
@@ -665,7 +665,7 @@
         <v>12.3</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F8">
         <v>98</v>

--- a/Log2.xlsx
+++ b/Log2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8928994-D598-4115-904D-98C73677BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBC50C1-3720-4734-85DF-E2FD9CC84310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="2535" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
         <v>99</v>
       </c>
       <c r="G4">
-        <v>27.05</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>82</v>
@@ -593,7 +593,7 @@
         <v>98</v>
       </c>
       <c r="G5">
-        <v>27.55</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>60</v>
@@ -619,7 +619,7 @@
         <v>99</v>
       </c>
       <c r="G6">
-        <v>33.869999999999997</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>75</v>
@@ -645,7 +645,7 @@
         <v>99</v>
       </c>
       <c r="G7">
-        <v>15.35</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>80</v>
@@ -671,7 +671,7 @@
         <v>98</v>
       </c>
       <c r="G8">
-        <v>17.3</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>100</v>
